--- a/Project_B/Assets/Excel/GameDB.xlsx
+++ b/Project_B/Assets/Excel/GameDB.xlsx
@@ -42,39 +42,30 @@
   </si>
   <si>
     <t>캐릭터 이름 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>캐릭터 이름 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -117,14 +108,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -407,172 +392,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>50</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2">
         <v>100</v>
       </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>51</v>
-      </c>
-      <c r="D3" s="1">
-        <v>99</v>
+      <c r="C3">
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
-        <v>52</v>
-      </c>
-      <c r="D4" s="1">
-        <v>98</v>
+      <c r="C4">
+        <v>102</v>
+      </c>
+      <c r="D4">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>53</v>
-      </c>
-      <c r="D5" s="1">
-        <v>97</v>
+      <c r="C5">
+        <v>103</v>
+      </c>
+      <c r="D5">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
-        <v>54</v>
-      </c>
-      <c r="D6" s="1">
-        <v>96</v>
+      <c r="C6">
+        <v>104</v>
+      </c>
+      <c r="D6">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1">
-        <v>95</v>
+      <c r="C7">
+        <v>105</v>
+      </c>
+      <c r="D7">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
-        <v>56</v>
-      </c>
-      <c r="D8" s="1">
-        <v>94</v>
+      <c r="C8">
+        <v>106</v>
+      </c>
+      <c r="D8">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
-        <v>57</v>
-      </c>
-      <c r="D9" s="1">
-        <v>93</v>
+      <c r="C9">
+        <v>107</v>
+      </c>
+      <c r="D9">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
-        <v>58</v>
-      </c>
-      <c r="D10" s="1">
-        <v>92</v>
+      <c r="C10">
+        <v>108</v>
+      </c>
+      <c r="D10">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
-        <v>59</v>
-      </c>
-      <c r="D11" s="1">
-        <v>91</v>
+      <c r="C11">
+        <v>109</v>
+      </c>
+      <c r="D11">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>